--- a/src/main/resources/static/resources/download/Wayne餐厅.xlsx
+++ b/src/main/resources/static/resources/download/Wayne餐厅.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="38">
   <si>
     <t>Wayne餐厅</t>
   </si>
@@ -23,19 +23,25 @@
     <t>名称</t>
   </si>
   <si>
-    <t>规格</t>
+    <t>商品规格</t>
   </si>
   <si>
     <t>单价</t>
   </si>
   <si>
-    <t>下单数</t>
+    <t>下单数(不填默认不下单)</t>
+  </si>
+  <si>
+    <t>订单规格(不填默认商品规格)</t>
+  </si>
+  <si>
+    <t>备注(可不填)</t>
   </si>
   <si>
     <t>1</t>
   </si>
   <si>
-    <t>白菜</t>
+    <t>大白菜</t>
   </si>
   <si>
     <t>元/斤</t>
@@ -50,73 +56,76 @@
     <t>2</t>
   </si>
   <si>
+    <t>1.00</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>11.00</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>6</t>
+  </si>
+  <si>
+    <t>7</t>
+  </si>
+  <si>
+    <t>8</t>
+  </si>
+  <si>
+    <t>9</t>
+  </si>
+  <si>
+    <t>10</t>
+  </si>
+  <si>
+    <t>11</t>
+  </si>
+  <si>
+    <t>18</t>
+  </si>
+  <si>
+    <t>小白菜呀</t>
+  </si>
+  <si>
     <t>斤</t>
   </si>
   <si>
-    <t>1.00</t>
-  </si>
-  <si>
-    <t>10</t>
-  </si>
-  <si>
-    <t>18</t>
-  </si>
-  <si>
     <t>2.50</t>
   </si>
   <si>
-    <t>3</t>
-  </si>
-  <si>
-    <t>鸡</t>
-  </si>
-  <si>
-    <t>21.00</t>
-  </si>
-  <si>
     <t>13</t>
   </si>
   <si>
+    <t>大公鸡</t>
+  </si>
+  <si>
     <t>26.00</t>
   </si>
   <si>
     <t>17</t>
   </si>
   <si>
+    <t>小母鸡</t>
+  </si>
+  <si>
     <t>2.00</t>
   </si>
   <si>
-    <t>6</t>
-  </si>
-  <si>
-    <t>猪肉</t>
-  </si>
-  <si>
-    <t>9</t>
-  </si>
-  <si>
     <t>12</t>
   </si>
   <si>
+    <t>猪脚</t>
+  </si>
+  <si>
     <t>28.00</t>
   </si>
   <si>
-    <t>5</t>
-  </si>
-  <si>
-    <t>鱼</t>
-  </si>
-  <si>
     <t>4</t>
-  </si>
-  <si>
-    <t>八角</t>
-  </si>
-  <si>
-    <t>11.00</t>
-  </si>
-  <si>
-    <t>11</t>
   </si>
 </sst>
 </file>
@@ -550,13 +559,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:E15"/>
+  <dimension ref="A1:G17"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
     <col min="1" max="1" width="0.0" customWidth="true"/>
+    <col min="5" max="5" width="20.0" customWidth="true"/>
+    <col min="6" max="6" width="25.0" customWidth="true"/>
+    <col min="7" max="7" width="20.0" customWidth="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -566,7 +578,9 @@
       <c r="B1" s="7"/>
       <c r="C1" s="7"/>
       <c r="D1" s="7"/>
-      <c r="E1" s="8"/>
+      <c r="E1" s="7"/>
+      <c r="F1" s="7"/>
+      <c r="G1" s="8"/>
     </row>
     <row r="2">
       <c r="A2" s="1" t="s">
@@ -584,231 +598,361 @@
       <c r="E2" s="1" t="s">
         <v>5</v>
       </c>
+      <c r="F2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>10</v>
+        <v>12</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>10</v>
+        <v>12</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>10</v>
+        <v>12</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>10</v>
+        <v>12</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>10</v>
+        <v>12</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>10</v>
+        <v>12</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>10</v>
+        <v>12</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>25</v>
+        <v>8</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>10</v>
+        <v>12</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G10" s="2" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>25</v>
+        <v>8</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>10</v>
+        <v>12</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G11" s="2" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>25</v>
+        <v>8</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>28</v>
+        <v>14</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>10</v>
+        <v>12</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G12" s="2" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="2" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>12</v>
+        <v>26</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>13</v>
+        <v>27</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>10</v>
+        <v>12</v>
+      </c>
+      <c r="F13" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G13" s="2" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="2" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>6</v>
+        <v>26</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>10</v>
+        <v>12</v>
+      </c>
+      <c r="F14" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G14" s="2" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="2" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="B15" s="2" t="s">
         <v>32</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>13</v>
+        <v>33</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>10</v>
+        <v>12</v>
+      </c>
+      <c r="F15" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G15" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F16" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G16" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E17" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F17" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G17" s="2" t="s">
+        <v>12</v>
       </c>
     </row>
   </sheetData>
   <mergeCells>
-    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="A1:G1"/>
   </mergeCells>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
